--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -114,7 +114,7 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>4711345</t>
+    <t>4688634</t>
   </si>
   <si>
     <t>ACTUAL</t>
@@ -129,7 +129,7 @@
     <t>Measured</t>
   </si>
   <si>
-    <t>4711309</t>
+    <t>4688702</t>
   </si>
   <si>
     <t>AFTER EXERCISE</t>
@@ -141,7 +141,7 @@
     <t>After exercise</t>
   </si>
   <si>
-    <t>4711313</t>
+    <t>4688697</t>
   </si>
   <si>
     <t>AT REST</t>
@@ -153,7 +153,7 @@
     <t>At rest</t>
   </si>
   <si>
-    <t>4711314</t>
+    <t>4688639</t>
   </si>
   <si>
     <t>AUSCULTATE</t>
@@ -165,7 +165,7 @@
     <t>Auscultation</t>
   </si>
   <si>
-    <t>4712397</t>
+    <t>4537031</t>
   </si>
   <si>
     <t>CALCULATED</t>
@@ -177,7 +177,7 @@
     <t>Calculated</t>
   </si>
   <si>
-    <t>4711346</t>
+    <t>4688652</t>
   </si>
   <si>
     <t>DRY</t>
@@ -189,7 +189,7 @@
     <t>Dry body weight</t>
   </si>
   <si>
-    <t>4711347</t>
+    <t>4688653</t>
   </si>
   <si>
     <t>ESTIMATED</t>
@@ -201,13 +201,13 @@
     <t>Estimated</t>
   </si>
   <si>
-    <t>4711348</t>
+    <t>4691085</t>
   </si>
   <si>
     <t>ESTIMATED BY ARM SPAN</t>
   </si>
   <si>
-    <t>4711325</t>
+    <t>4688700</t>
   </si>
   <si>
     <t>INVASIVE</t>
@@ -219,7 +219,7 @@
     <t>Invasive hemodynamic monitoring</t>
   </si>
   <si>
-    <t>4711335</t>
+    <t>4688668</t>
   </si>
   <si>
     <t>NON-INVASIVE</t>
@@ -231,7 +231,7 @@
     <t>Non-invasive cardiac output monitoring</t>
   </si>
   <si>
-    <t>4711337</t>
+    <t>4688669</t>
   </si>
   <si>
     <t>PALPATED</t>
@@ -243,7 +243,7 @@
     <t>Palpation</t>
   </si>
   <si>
-    <t>4711353</t>
+    <t>4688681</t>
   </si>
   <si>
     <t>ROOM AIR</t>
@@ -255,7 +255,7 @@
     <t>Air</t>
   </si>
   <si>
-    <t>4711360</t>
+    <t>4688706</t>
   </si>
   <si>
     <t>SPONTANEOUS</t>
@@ -267,7 +267,7 @@
     <t>Spontaneous respiration</t>
   </si>
   <si>
-    <t>4711363</t>
+    <t>4688692</t>
   </si>
   <si>
     <t>STATED</t>
@@ -279,7 +279,7 @@
     <t>Finding reported by subject or history provider</t>
   </si>
   <si>
-    <t>4711368</t>
+    <t>4688683</t>
   </si>
   <si>
     <t>TRANSTRACHEAL</t>
@@ -291,7 +291,7 @@
     <t>Transtracheal oxygen catheter</t>
   </si>
   <si>
-    <t>4710817</t>
+    <t>4688699</t>
   </si>
   <si>
     <t>WITH ACTIVITY</t>
@@ -303,7 +303,7 @@
     <t>During exercise</t>
   </si>
   <si>
-    <t>4710818</t>
+    <t>4536421</t>
   </si>
   <si>
     <t>WITH AMBULATION</t>
@@ -315,7 +315,7 @@
     <t>OE, not method</t>
   </si>
   <si>
-    <t>4710819</t>
+    <t>4500992</t>
   </si>
   <si>
     <t>WITH CAST OR BRACE</t>
@@ -327,13 +327,13 @@
     <t>Does not remove prosthesis</t>
   </si>
   <si>
-    <t>4710820</t>
+    <t>4500993</t>
   </si>
   <si>
     <t>WITH PROSTHESIS</t>
   </si>
   <si>
-    <t>4710821</t>
+    <t>4500994</t>
   </si>
   <si>
     <t>WITHOUT PROSTHESIS</t>
@@ -611,7 +611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -991,6 +991,40 @@
         <v>109</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -571,28 +574,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>7</v>
@@ -600,7 +603,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
@@ -619,410 +622,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsMethod.xlsx
+++ b/docs/VF-VitalsMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
